--- a/01 회원사사용료현황(2020년).xlsx
+++ b/01 회원사사용료현황(2020년).xlsx
@@ -3181,7 +3181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="526">
+  <cellXfs count="527">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4666,6 +4666,9 @@
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5053,8 +5056,8 @@
   </sheetPr>
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5077,36 +5080,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="32.25" thickBot="1">
-      <c r="A1" s="495">
-        <v>1</v>
-      </c>
-      <c r="B1" s="495"/>
+      <c r="A1" s="496">
+        <v>2</v>
+      </c>
+      <c r="B1" s="496"/>
       <c r="G1" s="73"/>
       <c r="N1" s="199"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="502" t="s">
+      <c r="A2" s="503" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="503"/>
-      <c r="C2" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="507"/>
-      <c r="E2" s="507"/>
-      <c r="F2" s="507"/>
-      <c r="G2" s="507"/>
-      <c r="H2" s="507"/>
-      <c r="I2" s="508"/>
-      <c r="J2" s="496"/>
-      <c r="K2" s="497"/>
-      <c r="L2" s="497"/>
-      <c r="M2" s="497"/>
-      <c r="N2" s="498"/>
+      <c r="B2" s="504"/>
+      <c r="C2" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="508"/>
+      <c r="E2" s="508"/>
+      <c r="F2" s="508"/>
+      <c r="G2" s="508"/>
+      <c r="H2" s="508"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="497"/>
+      <c r="K2" s="498"/>
+      <c r="L2" s="498"/>
+      <c r="M2" s="498"/>
+      <c r="N2" s="499"/>
     </row>
     <row r="3" spans="1:16" ht="33.75" thickBot="1">
-      <c r="A3" s="504"/>
-      <c r="B3" s="505"/>
+      <c r="A3" s="505"/>
+      <c r="B3" s="506"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -5639,13 +5642,11 @@
       <c r="C22" s="120">
         <v>300000</v>
       </c>
-      <c r="D22" s="53">
-        <v>50000</v>
-      </c>
+      <c r="D22" s="53"/>
       <c r="E22" s="53"/>
       <c r="F22" s="344">
-        <f t="shared" si="0"/>
-        <v>350000</v>
+        <f>SUM(C22:E22)</f>
+        <v>300000</v>
       </c>
       <c r="G22" s="345"/>
       <c r="H22" s="8"/>
@@ -5656,18 +5657,11 @@
         <v>0</v>
       </c>
       <c r="K22" s="8"/>
-      <c r="L22" s="53">
-        <v>30000</v>
-      </c>
-      <c r="M22" s="53">
-        <v>5000</v>
-      </c>
-      <c r="N22" s="123">
-        <f t="shared" si="1"/>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="123"/>
+    </row>
+    <row r="23" spans="1:14" ht="17.25" thickBot="1">
       <c r="A23" s="308" t="s">
         <v>147</v>
       </c>
@@ -5699,7 +5693,7 @@
         <v>5000</v>
       </c>
       <c r="N23" s="107">
-        <f t="shared" si="1"/>
+        <f>SUM(L23:M23)</f>
         <v>35000</v>
       </c>
     </row>
@@ -5711,24 +5705,30 @@
         <v>57</v>
       </c>
       <c r="C24" s="102"/>
-      <c r="D24" s="57"/>
+      <c r="D24" s="53">
+        <v>50000</v>
+      </c>
       <c r="E24" s="57"/>
       <c r="F24" s="346">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G24" s="350"/>
       <c r="H24" s="77"/>
       <c r="I24" s="179"/>
       <c r="J24" s="45">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K24" s="77"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
+      <c r="L24" s="54">
+        <v>30000</v>
+      </c>
+      <c r="M24" s="54">
+        <v>5000</v>
+      </c>
       <c r="N24" s="107">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L24:M24)</f>
+        <v>35000</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickBot="1">
@@ -5869,17 +5869,15 @@
         <v>201</v>
       </c>
       <c r="C29" s="120">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
       <c r="F29" s="344">
         <f t="shared" si="0"/>
-        <v>250000</v>
-      </c>
-      <c r="G29" s="354">
-        <v>100000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G29" s="354"/>
       <c r="H29" s="121"/>
       <c r="I29" s="181"/>
       <c r="J29" s="122"/>
@@ -5902,20 +5900,20 @@
       <c r="B30" s="281" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="339"/>
-      <c r="E30" s="339"/>
-      <c r="F30" s="346">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="350">
+      <c r="C30" s="111"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="352">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="353">
         <v>100000</v>
       </c>
       <c r="H30" s="74"/>
       <c r="I30" s="340"/>
       <c r="J30" s="48">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="57"/>
@@ -5932,15 +5930,22 @@
       <c r="B31" s="281" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="352"/>
-      <c r="G31" s="353"/>
+      <c r="C31" s="495">
+        <v>250000</v>
+      </c>
+      <c r="D31" s="339"/>
+      <c r="E31" s="339"/>
+      <c r="F31" s="346">
+        <f t="shared" ref="F31" si="4">SUM(C31:E31)</f>
+        <v>250000</v>
+      </c>
+      <c r="G31" s="350">
+        <v>100000</v>
+      </c>
       <c r="H31" s="112"/>
       <c r="I31" s="440"/>
       <c r="J31" s="113">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="58"/>
@@ -6110,7 +6115,7 @@
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
       <c r="F38" s="348">
-        <f t="shared" ref="F38" si="4">SUM(C38:E38)</f>
+        <f t="shared" ref="F38" si="5">SUM(C38:E38)</f>
         <v>0</v>
       </c>
       <c r="G38" s="351"/>
@@ -6121,7 +6126,7 @@
       <c r="L38" s="60"/>
       <c r="M38" s="60"/>
       <c r="N38" s="108">
-        <f t="shared" ref="N38" si="5">SUM(L38:M38)</f>
+        <f t="shared" ref="N38" si="6">SUM(L38:M38)</f>
         <v>0</v>
       </c>
     </row>
@@ -6166,7 +6171,7 @@
       <c r="C40" s="341"/>
       <c r="D40" s="54"/>
       <c r="E40" s="54"/>
-      <c r="F40" s="346"/>
+      <c r="F40" s="352"/>
       <c r="G40" s="356"/>
       <c r="H40" s="4"/>
       <c r="I40" s="174"/>
@@ -6184,13 +6189,12 @@
         <v>23</v>
       </c>
       <c r="C41" s="149">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="D41" s="52"/>
-      <c r="E41" s="52">
-        <v>0</v>
-      </c>
+      <c r="E41" s="52"/>
       <c r="F41" s="357">
+        <f t="shared" si="0"/>
         <v>300000</v>
       </c>
       <c r="G41" s="357"/>
@@ -6269,7 +6273,7 @@
       <c r="L43" s="57"/>
       <c r="M43" s="57"/>
       <c r="N43" s="107">
-        <f t="shared" ref="N43" si="6">SUM(L43:M43)</f>
+        <f t="shared" ref="N43" si="7">SUM(L43:M43)</f>
         <v>0</v>
       </c>
     </row>
@@ -6293,7 +6297,7 @@
       <c r="H44" s="155"/>
       <c r="I44" s="184"/>
       <c r="J44" s="156">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K44" s="155"/>
       <c r="L44" s="59">
@@ -6498,9 +6502,7 @@
       <c r="G51" s="364">
         <v>100000</v>
       </c>
-      <c r="H51" s="27">
-        <v>100000</v>
-      </c>
+      <c r="H51" s="155"/>
       <c r="I51" s="178"/>
       <c r="J51" s="117"/>
       <c r="K51" s="136"/>
@@ -7132,19 +7134,19 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A74" s="509" t="s">
+      <c r="A74" s="510" t="s">
         <v>180</v>
       </c>
-      <c r="B74" s="510"/>
+      <c r="B74" s="511"/>
       <c r="C74" s="272"/>
       <c r="D74" s="272"/>
       <c r="E74" s="273"/>
-      <c r="F74" s="499">
+      <c r="F74" s="500">
         <f>SUM(F4:H73)</f>
-        <v>10450000</v>
-      </c>
-      <c r="G74" s="500"/>
-      <c r="H74" s="501"/>
+        <v>10350000</v>
+      </c>
+      <c r="G74" s="501"/>
+      <c r="H74" s="502"/>
       <c r="I74" s="245"/>
       <c r="J74" s="274">
         <f>SUM(J4:J73)</f>
@@ -7236,56 +7238,56 @@
       <c r="T2" s="477"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="502" t="s">
+      <c r="A3" s="503" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="503"/>
-      <c r="C3" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
-      <c r="H3" s="507"/>
-      <c r="I3" s="508"/>
-      <c r="J3" s="514" t="s">
+      <c r="B3" s="504"/>
+      <c r="C3" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="508"/>
+      <c r="E3" s="508"/>
+      <c r="F3" s="508"/>
+      <c r="G3" s="508"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="515" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="515"/>
-      <c r="L3" s="515"/>
-      <c r="M3" s="515"/>
-      <c r="N3" s="515"/>
-      <c r="O3" s="515"/>
-      <c r="P3" s="515"/>
-      <c r="Q3" s="516"/>
+      <c r="K3" s="516"/>
+      <c r="L3" s="516"/>
+      <c r="M3" s="516"/>
+      <c r="N3" s="516"/>
+      <c r="O3" s="516"/>
+      <c r="P3" s="516"/>
+      <c r="Q3" s="517"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="517" t="s">
+      <c r="S3" s="518" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="518"/>
-      <c r="U3" s="521" t="s">
+      <c r="T3" s="519"/>
+      <c r="U3" s="522" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="522"/>
-      <c r="W3" s="522"/>
-      <c r="X3" s="522"/>
-      <c r="Y3" s="522"/>
-      <c r="Z3" s="522"/>
-      <c r="AA3" s="523"/>
-      <c r="AB3" s="511" t="s">
+      <c r="V3" s="523"/>
+      <c r="W3" s="523"/>
+      <c r="X3" s="523"/>
+      <c r="Y3" s="523"/>
+      <c r="Z3" s="523"/>
+      <c r="AA3" s="524"/>
+      <c r="AB3" s="512" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="511"/>
-      <c r="AD3" s="511"/>
-      <c r="AE3" s="511"/>
-      <c r="AG3" s="511" t="s">
+      <c r="AC3" s="512"/>
+      <c r="AD3" s="512"/>
+      <c r="AE3" s="512"/>
+      <c r="AG3" s="512" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="504"/>
-      <c r="B4" s="505"/>
+      <c r="A4" s="505"/>
+      <c r="B4" s="506"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -7332,8 +7334,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="520"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="521"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -7367,7 +7369,7 @@
       <c r="AE4" s="462" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="511"/>
+      <c r="AG4" s="512"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -11268,19 +11270,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="509" t="s">
+      <c r="A66" s="510" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="510"/>
+      <c r="B66" s="511"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="499">
+      <c r="F66" s="500">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="500"/>
-      <c r="H66" s="501"/>
+      <c r="G66" s="501"/>
+      <c r="H66" s="502"/>
       <c r="I66" s="372"/>
       <c r="J66" s="423">
         <f>SUM(J5:J65)</f>
@@ -11299,10 +11301,10 @@
       </c>
       <c r="P66" s="426"/>
       <c r="Q66" s="427"/>
-      <c r="S66" s="512" t="s">
+      <c r="S66" s="513" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="513"/>
+      <c r="T66" s="514"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>166</v>
@@ -11408,56 +11410,56 @@
       <c r="T2" s="477"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="502" t="s">
+      <c r="A3" s="503" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="503"/>
-      <c r="C3" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
-      <c r="H3" s="507"/>
-      <c r="I3" s="508"/>
-      <c r="J3" s="514" t="s">
+      <c r="B3" s="504"/>
+      <c r="C3" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="508"/>
+      <c r="E3" s="508"/>
+      <c r="F3" s="508"/>
+      <c r="G3" s="508"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="515" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="515"/>
-      <c r="L3" s="515"/>
-      <c r="M3" s="515"/>
-      <c r="N3" s="515"/>
-      <c r="O3" s="515"/>
-      <c r="P3" s="515"/>
-      <c r="Q3" s="516"/>
+      <c r="K3" s="516"/>
+      <c r="L3" s="516"/>
+      <c r="M3" s="516"/>
+      <c r="N3" s="516"/>
+      <c r="O3" s="516"/>
+      <c r="P3" s="516"/>
+      <c r="Q3" s="517"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="517" t="s">
+      <c r="S3" s="518" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="518"/>
-      <c r="U3" s="521" t="s">
+      <c r="T3" s="519"/>
+      <c r="U3" s="522" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="522"/>
-      <c r="W3" s="522"/>
-      <c r="X3" s="522"/>
-      <c r="Y3" s="522"/>
-      <c r="Z3" s="522"/>
-      <c r="AA3" s="523"/>
-      <c r="AB3" s="511" t="s">
+      <c r="V3" s="523"/>
+      <c r="W3" s="523"/>
+      <c r="X3" s="523"/>
+      <c r="Y3" s="523"/>
+      <c r="Z3" s="523"/>
+      <c r="AA3" s="524"/>
+      <c r="AB3" s="512" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="511"/>
-      <c r="AD3" s="511"/>
-      <c r="AE3" s="511"/>
-      <c r="AG3" s="511" t="s">
+      <c r="AC3" s="512"/>
+      <c r="AD3" s="512"/>
+      <c r="AE3" s="512"/>
+      <c r="AG3" s="512" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="504"/>
-      <c r="B4" s="505"/>
+      <c r="A4" s="505"/>
+      <c r="B4" s="506"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -11504,8 +11506,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="520"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="521"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -11539,7 +11541,7 @@
       <c r="AE4" s="448" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="511"/>
+      <c r="AG4" s="512"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -15414,19 +15416,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="509" t="s">
+      <c r="A66" s="510" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="510"/>
+      <c r="B66" s="511"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="499">
+      <c r="F66" s="500">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="500"/>
-      <c r="H66" s="501"/>
+      <c r="G66" s="501"/>
+      <c r="H66" s="502"/>
       <c r="I66" s="372"/>
       <c r="J66" s="423">
         <f>SUM(J5:J65)</f>
@@ -15445,10 +15447,10 @@
       </c>
       <c r="P66" s="426"/>
       <c r="Q66" s="427"/>
-      <c r="S66" s="512" t="s">
+      <c r="S66" s="513" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="513"/>
+      <c r="T66" s="514"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>165</v>
@@ -15545,56 +15547,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="502" t="s">
+      <c r="A2" s="503" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="503"/>
-      <c r="C2" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="507"/>
-      <c r="E2" s="507"/>
-      <c r="F2" s="507"/>
-      <c r="G2" s="507"/>
-      <c r="H2" s="507"/>
-      <c r="I2" s="508"/>
-      <c r="J2" s="514" t="s">
+      <c r="B2" s="504"/>
+      <c r="C2" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="508"/>
+      <c r="E2" s="508"/>
+      <c r="F2" s="508"/>
+      <c r="G2" s="508"/>
+      <c r="H2" s="508"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="515" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="515"/>
-      <c r="L2" s="515"/>
-      <c r="M2" s="515"/>
-      <c r="N2" s="515"/>
-      <c r="O2" s="515"/>
-      <c r="P2" s="515"/>
-      <c r="Q2" s="516"/>
+      <c r="K2" s="516"/>
+      <c r="L2" s="516"/>
+      <c r="M2" s="516"/>
+      <c r="N2" s="516"/>
+      <c r="O2" s="516"/>
+      <c r="P2" s="516"/>
+      <c r="Q2" s="517"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="517" t="s">
+      <c r="S2" s="518" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="518"/>
-      <c r="U2" s="521" t="s">
+      <c r="T2" s="519"/>
+      <c r="U2" s="522" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="522"/>
-      <c r="W2" s="522"/>
-      <c r="X2" s="522"/>
-      <c r="Y2" s="522"/>
-      <c r="Z2" s="522"/>
-      <c r="AA2" s="523"/>
-      <c r="AB2" s="511" t="s">
+      <c r="V2" s="523"/>
+      <c r="W2" s="523"/>
+      <c r="X2" s="523"/>
+      <c r="Y2" s="523"/>
+      <c r="Z2" s="523"/>
+      <c r="AA2" s="524"/>
+      <c r="AB2" s="512" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="511"/>
-      <c r="AD2" s="511"/>
-      <c r="AE2" s="511"/>
-      <c r="AG2" s="511" t="s">
+      <c r="AC2" s="512"/>
+      <c r="AD2" s="512"/>
+      <c r="AE2" s="512"/>
+      <c r="AG2" s="512" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="504"/>
-      <c r="B3" s="505"/>
+      <c r="A3" s="505"/>
+      <c r="B3" s="506"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -15641,8 +15643,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="519"/>
-      <c r="T3" s="520"/>
+      <c r="S3" s="520"/>
+      <c r="T3" s="521"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -15676,7 +15678,7 @@
       <c r="AE3" s="441" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="511"/>
+      <c r="AG3" s="512"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="306" t="s">
@@ -19535,19 +19537,19 @@
       <c r="AG63" s="18"/>
     </row>
     <row r="64" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="509" t="s">
+      <c r="A64" s="510" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="510"/>
+      <c r="B64" s="511"/>
       <c r="C64" s="272"/>
       <c r="D64" s="272"/>
       <c r="E64" s="273"/>
-      <c r="F64" s="499">
+      <c r="F64" s="500">
         <f>SUM(F4:H63)</f>
         <v>10300000</v>
       </c>
-      <c r="G64" s="500"/>
-      <c r="H64" s="501"/>
+      <c r="G64" s="501"/>
+      <c r="H64" s="502"/>
       <c r="I64" s="372"/>
       <c r="J64" s="423">
         <f>SUM(J4:J63)</f>
@@ -19566,10 +19568,10 @@
       </c>
       <c r="P64" s="426"/>
       <c r="Q64" s="427"/>
-      <c r="S64" s="512" t="s">
+      <c r="S64" s="513" t="s">
         <v>180</v>
       </c>
-      <c r="T64" s="513"/>
+      <c r="T64" s="514"/>
       <c r="U64" s="320">
         <f>SUM(U4:U63)</f>
         <v>162</v>
@@ -19668,56 +19670,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="502" t="s">
+      <c r="A2" s="503" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="503"/>
-      <c r="C2" s="506" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="507"/>
-      <c r="E2" s="507"/>
-      <c r="F2" s="507"/>
-      <c r="G2" s="507"/>
-      <c r="H2" s="507"/>
-      <c r="I2" s="508"/>
-      <c r="J2" s="514" t="s">
+      <c r="B2" s="504"/>
+      <c r="C2" s="507" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="508"/>
+      <c r="E2" s="508"/>
+      <c r="F2" s="508"/>
+      <c r="G2" s="508"/>
+      <c r="H2" s="508"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="515" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="515"/>
-      <c r="L2" s="515"/>
-      <c r="M2" s="515"/>
-      <c r="N2" s="515"/>
-      <c r="O2" s="515"/>
-      <c r="P2" s="515"/>
-      <c r="Q2" s="516"/>
+      <c r="K2" s="516"/>
+      <c r="L2" s="516"/>
+      <c r="M2" s="516"/>
+      <c r="N2" s="516"/>
+      <c r="O2" s="516"/>
+      <c r="P2" s="516"/>
+      <c r="Q2" s="517"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="517" t="s">
+      <c r="S2" s="518" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="518"/>
-      <c r="U2" s="521" t="s">
+      <c r="T2" s="519"/>
+      <c r="U2" s="522" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="522"/>
-      <c r="W2" s="522"/>
-      <c r="X2" s="522"/>
-      <c r="Y2" s="522"/>
-      <c r="Z2" s="522"/>
-      <c r="AA2" s="523"/>
-      <c r="AB2" s="511" t="s">
+      <c r="V2" s="523"/>
+      <c r="W2" s="523"/>
+      <c r="X2" s="523"/>
+      <c r="Y2" s="523"/>
+      <c r="Z2" s="523"/>
+      <c r="AA2" s="524"/>
+      <c r="AB2" s="512" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="511"/>
-      <c r="AD2" s="511"/>
-      <c r="AE2" s="511"/>
-      <c r="AG2" s="511" t="s">
+      <c r="AC2" s="512"/>
+      <c r="AD2" s="512"/>
+      <c r="AE2" s="512"/>
+      <c r="AG2" s="512" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="504"/>
-      <c r="B3" s="505"/>
+      <c r="A3" s="505"/>
+      <c r="B3" s="506"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -19764,8 +19766,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="519"/>
-      <c r="T3" s="520"/>
+      <c r="S3" s="520"/>
+      <c r="T3" s="521"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -19799,7 +19801,7 @@
       <c r="AE3" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="511"/>
+      <c r="AG3" s="512"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="305" t="s">
@@ -23590,21 +23592,21 @@
       <c r="AG62" s="18"/>
     </row>
     <row r="63" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="509" t="s">
+      <c r="A63" s="510" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="510"/>
+      <c r="B63" s="511"/>
       <c r="C63" s="272"/>
       <c r="D63" s="272"/>
       <c r="E63" s="273"/>
       <c r="F63" s="275">
         <v>41</v>
       </c>
-      <c r="G63" s="524">
+      <c r="G63" s="525">
         <f>SUM(F4:H62)</f>
         <v>10100000</v>
       </c>
-      <c r="H63" s="525"/>
+      <c r="H63" s="526"/>
       <c r="I63" s="245"/>
       <c r="J63" s="274">
         <f>SUM(J4:J62)</f>
@@ -23623,10 +23625,10 @@
       </c>
       <c r="P63" s="247"/>
       <c r="Q63" s="248"/>
-      <c r="S63" s="512" t="s">
+      <c r="S63" s="513" t="s">
         <v>180</v>
       </c>
-      <c r="T63" s="513"/>
+      <c r="T63" s="514"/>
       <c r="U63" s="320">
         <f>SUM(U4:U62)</f>
         <v>10</v>

--- a/01 회원사사용료현황(2020년).xlsx
+++ b/01 회원사사용료현황(2020년).xlsx
@@ -4766,12 +4766,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="7" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="7" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4808,6 +4871,12 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4854,75 +4923,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5242,10 +5242,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5">
-      <c r="A1" s="533">
+      <c r="A1" s="515">
         <v>4</v>
       </c>
-      <c r="B1" s="533"/>
+      <c r="B1" s="515"/>
       <c r="G1" s="73"/>
       <c r="N1" s="199"/>
     </row>
@@ -5257,8 +5257,8 @@
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
-      <c r="F2" s="526"/>
-      <c r="G2" s="526"/>
+      <c r="F2" s="496"/>
+      <c r="G2" s="496"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
@@ -5268,28 +5268,28 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="501" t="s">
+      <c r="A3" s="522" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="502"/>
-      <c r="C3" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="507"/>
-      <c r="J3" s="496"/>
-      <c r="K3" s="497"/>
-      <c r="L3" s="497"/>
-      <c r="M3" s="497"/>
-      <c r="N3" s="534"/>
+      <c r="B3" s="523"/>
+      <c r="C3" s="526" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="527"/>
+      <c r="E3" s="527"/>
+      <c r="F3" s="527"/>
+      <c r="G3" s="527"/>
+      <c r="H3" s="527"/>
+      <c r="I3" s="528"/>
+      <c r="J3" s="516"/>
+      <c r="K3" s="517"/>
+      <c r="L3" s="517"/>
+      <c r="M3" s="517"/>
+      <c r="N3" s="518"/>
     </row>
     <row r="4" spans="1:16" ht="33.75" thickBot="1">
-      <c r="A4" s="503"/>
-      <c r="B4" s="504"/>
+      <c r="A4" s="524"/>
+      <c r="B4" s="525"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -5323,7 +5323,7 @@
       <c r="M4" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="535" t="s">
+      <c r="N4" s="501" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="M5" s="209">
         <v>10000</v>
       </c>
-      <c r="N5" s="543">
+      <c r="N5" s="509">
         <f>SUM(L5:M5)</f>
         <v>40000</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
       <c r="F6" s="341">
-        <f t="shared" ref="F6:F79" si="0">SUM(C6:E6)</f>
+        <f t="shared" ref="F6:F76" si="0">SUM(C6:E6)</f>
         <v>400000</v>
       </c>
       <c r="G6" s="342">
@@ -5398,7 +5398,7 @@
       <c r="M6" s="53">
         <v>5000</v>
       </c>
-      <c r="N6" s="540">
+      <c r="N6" s="506">
         <f t="shared" ref="N6:N79" si="1">SUM(L6:M6)</f>
         <v>35000</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="538"/>
+      <c r="N7" s="504"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="308" t="s">
@@ -5447,7 +5447,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="54"/>
       <c r="M8" s="54"/>
-      <c r="N8" s="538"/>
+      <c r="N8" s="504"/>
     </row>
     <row r="9" spans="1:16" ht="17.25" thickBot="1">
       <c r="A9" s="308" t="s">
@@ -5470,7 +5470,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="54"/>
       <c r="M9" s="54"/>
-      <c r="N9" s="538"/>
+      <c r="N9" s="504"/>
     </row>
     <row r="10" spans="1:16" ht="17.25" hidden="1" thickBot="1">
       <c r="A10" s="311"/>
@@ -5488,7 +5488,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="55"/>
       <c r="M10" s="55"/>
-      <c r="N10" s="541"/>
+      <c r="N10" s="507"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="310" t="s">
@@ -5521,7 +5521,7 @@
       <c r="M11" s="329">
         <v>5000</v>
       </c>
-      <c r="N11" s="544">
+      <c r="N11" s="510">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
@@ -5555,7 +5555,7 @@
       <c r="M12" s="332">
         <v>5000</v>
       </c>
-      <c r="N12" s="545">
+      <c r="N12" s="511">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="M13" s="332">
         <v>5000</v>
       </c>
-      <c r="N13" s="545">
+      <c r="N13" s="511">
         <f t="shared" ref="N13" si="3">SUM(L13:M13)</f>
         <v>20000</v>
       </c>
@@ -5621,7 +5621,7 @@
       <c r="M14" s="332">
         <v>5000</v>
       </c>
-      <c r="N14" s="545">
+      <c r="N14" s="511">
         <f t="shared" ref="N14:N15" si="5">SUM(L14:M14)</f>
         <v>20000</v>
       </c>
@@ -5653,7 +5653,7 @@
       <c r="M15" s="332">
         <v>5000</v>
       </c>
-      <c r="N15" s="545">
+      <c r="N15" s="511">
         <f t="shared" si="5"/>
         <v>20000</v>
       </c>
@@ -5674,7 +5674,7 @@
       <c r="K16" s="77"/>
       <c r="L16" s="332"/>
       <c r="M16" s="332"/>
-      <c r="N16" s="545"/>
+      <c r="N16" s="511"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" hidden="1" thickBot="1">
       <c r="A17" s="333"/>
@@ -5692,7 +5692,7 @@
       <c r="K17" s="79"/>
       <c r="L17" s="335"/>
       <c r="M17" s="335"/>
-      <c r="N17" s="546"/>
+      <c r="N17" s="512"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" thickBot="1">
       <c r="A18" s="310" t="s">
@@ -5716,7 +5716,7 @@
       <c r="K18" s="155"/>
       <c r="L18" s="234"/>
       <c r="M18" s="234"/>
-      <c r="N18" s="543"/>
+      <c r="N18" s="509"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" thickBot="1">
       <c r="A19" s="308" t="s">
@@ -5749,7 +5749,7 @@
       <c r="M19" s="57">
         <v>5000</v>
       </c>
-      <c r="N19" s="538">
+      <c r="N19" s="504">
         <f>SUM(L19:M19)</f>
         <v>20000</v>
       </c>
@@ -5770,7 +5770,7 @@
       <c r="K20" s="79"/>
       <c r="L20" s="103"/>
       <c r="M20" s="60"/>
-      <c r="N20" s="541"/>
+      <c r="N20" s="507"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="310" t="s">
@@ -5805,7 +5805,7 @@
       <c r="M21" s="53">
         <v>5000</v>
       </c>
-      <c r="N21" s="540">
+      <c r="N21" s="506">
         <f t="shared" si="1"/>
         <v>55000</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="K22" s="77"/>
       <c r="L22" s="102"/>
       <c r="M22" s="57"/>
-      <c r="N22" s="538"/>
+      <c r="N22" s="504"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" thickBot="1">
       <c r="A23" s="308" t="s">
@@ -5860,7 +5860,7 @@
       <c r="K23" s="77"/>
       <c r="L23" s="57"/>
       <c r="M23" s="57"/>
-      <c r="N23" s="538"/>
+      <c r="N23" s="504"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" hidden="1" thickBot="1">
       <c r="A24" s="311"/>
@@ -5878,7 +5878,7 @@
       <c r="K24" s="79"/>
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
-      <c r="N24" s="541"/>
+      <c r="N24" s="507"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="310" t="s">
@@ -5907,7 +5907,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="53"/>
       <c r="M25" s="53"/>
-      <c r="N25" s="540"/>
+      <c r="N25" s="506"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" thickBot="1">
       <c r="A26" s="308" t="s">
@@ -5940,7 +5940,7 @@
       <c r="M26" s="54">
         <v>5000</v>
       </c>
-      <c r="N26" s="538">
+      <c r="N26" s="504">
         <f>SUM(L26:M26)</f>
         <v>35000</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="M27" s="54">
         <v>5000</v>
       </c>
-      <c r="N27" s="538">
+      <c r="N27" s="504">
         <f>SUM(L27:M27)</f>
         <v>35000</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="K28" s="79"/>
       <c r="L28" s="60"/>
       <c r="M28" s="60"/>
-      <c r="N28" s="541">
+      <c r="N28" s="507">
         <f t="shared" ref="N28" si="7">SUM(L28:M28)</f>
         <v>0</v>
       </c>
@@ -6034,7 +6034,7 @@
       <c r="M29" s="53">
         <v>10000</v>
       </c>
-      <c r="N29" s="540">
+      <c r="N29" s="506">
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="M30" s="57">
         <v>10000</v>
       </c>
-      <c r="N30" s="538">
+      <c r="N30" s="504">
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="M31" s="58">
         <v>10000</v>
       </c>
-      <c r="N31" s="539">
+      <c r="N31" s="505">
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="59"/>
       <c r="M32" s="59"/>
-      <c r="N32" s="540">
+      <c r="N32" s="506">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="57"/>
       <c r="M33" s="57"/>
-      <c r="N33" s="538">
+      <c r="N33" s="504">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6194,7 +6194,7 @@
       <c r="M34" s="58">
         <v>10000</v>
       </c>
-      <c r="N34" s="539">
+      <c r="N34" s="505">
         <f>SUM(L34:M34)</f>
         <v>40000</v>
       </c>
@@ -6218,7 +6218,7 @@
       <c r="K35" s="79"/>
       <c r="L35" s="60"/>
       <c r="M35" s="60"/>
-      <c r="N35" s="541">
+      <c r="N35" s="507">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6243,7 +6243,7 @@
       <c r="K36" s="155"/>
       <c r="L36" s="59"/>
       <c r="M36" s="59"/>
-      <c r="N36" s="540"/>
+      <c r="N36" s="506"/>
     </row>
     <row r="37" spans="1:18" ht="17.25" thickBot="1">
       <c r="A37" s="311" t="s">
@@ -6273,7 +6273,7 @@
       <c r="M37" s="60">
         <v>10000</v>
       </c>
-      <c r="N37" s="541">
+      <c r="N37" s="507">
         <v>40000</v>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       <c r="K38" s="155"/>
       <c r="L38" s="59"/>
       <c r="M38" s="59"/>
-      <c r="N38" s="540"/>
+      <c r="N38" s="506"/>
     </row>
     <row r="39" spans="1:18" ht="17.25" thickBot="1">
       <c r="A39" s="308" t="s">
@@ -6329,7 +6329,7 @@
       <c r="M39" s="57">
         <v>10000</v>
       </c>
-      <c r="N39" s="538">
+      <c r="N39" s="504">
         <v>40000</v>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="57"/>
       <c r="M40" s="57"/>
-      <c r="N40" s="538"/>
+      <c r="N40" s="504"/>
     </row>
     <row r="41" spans="1:18" ht="17.25" hidden="1" thickBot="1">
       <c r="A41" s="311"/>
@@ -6370,7 +6370,7 @@
       <c r="K41" s="79"/>
       <c r="L41" s="60"/>
       <c r="M41" s="60"/>
-      <c r="N41" s="541">
+      <c r="N41" s="507">
         <f t="shared" ref="N41" si="10">SUM(L41:M41)</f>
         <v>0</v>
       </c>
@@ -6402,7 +6402,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="59"/>
       <c r="M42" s="59"/>
-      <c r="N42" s="540">
+      <c r="N42" s="506">
         <v>40000</v>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="57"/>
       <c r="M43" s="57"/>
-      <c r="N43" s="538"/>
+      <c r="N43" s="504"/>
     </row>
     <row r="44" spans="1:18" ht="17.25" thickBot="1">
       <c r="A44" s="306" t="s">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
-      <c r="F44" s="536">
+      <c r="F44" s="502">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
@@ -6453,7 +6453,7 @@
       <c r="K44" s="35"/>
       <c r="L44" s="52"/>
       <c r="M44" s="52"/>
-      <c r="N44" s="542">
+      <c r="N44" s="508">
         <v>50000</v>
       </c>
       <c r="O44" s="489" t="s">
@@ -6496,7 +6496,7 @@
       <c r="K45" s="30"/>
       <c r="L45" s="227"/>
       <c r="M45" s="227"/>
-      <c r="N45" s="547">
+      <c r="N45" s="513">
         <v>50000</v>
       </c>
     </row>
@@ -6519,7 +6519,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="57"/>
       <c r="M46" s="57"/>
-      <c r="N46" s="538">
+      <c r="N46" s="504">
         <f t="shared" ref="N46" si="11">SUM(L46:M46)</f>
         <v>0</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>80000</v>
       </c>
       <c r="M47" s="59"/>
-      <c r="N47" s="540">
+      <c r="N47" s="506">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="K48" s="79"/>
       <c r="L48" s="60"/>
       <c r="M48" s="60"/>
-      <c r="N48" s="541">
+      <c r="N48" s="507">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6611,7 +6611,7 @@
       <c r="K49" s="235"/>
       <c r="L49" s="234"/>
       <c r="M49" s="234"/>
-      <c r="N49" s="548" t="s">
+      <c r="N49" s="514" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
       <c r="M50" s="67">
         <v>5000</v>
       </c>
-      <c r="N50" s="542">
+      <c r="N50" s="508">
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
@@ -6674,7 +6674,7 @@
       <c r="K51" s="141"/>
       <c r="L51" s="66"/>
       <c r="M51" s="66"/>
-      <c r="N51" s="548" t="s">
+      <c r="N51" s="514" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6707,27 +6707,27 @@
         <v>30000</v>
       </c>
       <c r="M52" s="234"/>
-      <c r="N52" s="543">
+      <c r="N52" s="509">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A53" s="527" t="s">
+      <c r="A53" s="531" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="528"/>
-      <c r="C53" s="529"/>
-      <c r="D53" s="529"/>
-      <c r="E53" s="530"/>
-      <c r="F53" s="498">
+      <c r="B53" s="532"/>
+      <c r="C53" s="497"/>
+      <c r="D53" s="497"/>
+      <c r="E53" s="498"/>
+      <c r="F53" s="519">
         <f>SUM(F5:G52)</f>
         <v>6900000</v>
       </c>
-      <c r="G53" s="499"/>
-      <c r="H53" s="500"/>
-      <c r="I53" s="531"/>
-      <c r="J53" s="532">
+      <c r="G53" s="520"/>
+      <c r="H53" s="521"/>
+      <c r="I53" s="499"/>
+      <c r="J53" s="500">
         <f>SUM(J5:J52)</f>
         <v>815</v>
       </c>
@@ -6737,11 +6737,11 @@
       <c r="N53" s="423"/>
     </row>
     <row r="54" spans="1:14" ht="31.5">
-      <c r="A54" s="533">
+      <c r="A54" s="515">
         <f>A1</f>
         <v>4</v>
       </c>
-      <c r="B54" s="533"/>
+      <c r="B54" s="515"/>
       <c r="G54" s="73"/>
       <c r="N54" s="199"/>
     </row>
@@ -6753,8 +6753,8 @@
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
-      <c r="F55" s="526"/>
-      <c r="G55" s="526"/>
+      <c r="F55" s="496"/>
+      <c r="G55" s="496"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
@@ -6764,28 +6764,28 @@
       <c r="N55" s="20"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="501" t="s">
+      <c r="A56" s="522" t="s">
         <v>255</v>
       </c>
-      <c r="B56" s="502"/>
-      <c r="C56" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="506"/>
-      <c r="E56" s="506"/>
-      <c r="F56" s="506"/>
-      <c r="G56" s="506"/>
-      <c r="H56" s="506"/>
-      <c r="I56" s="507"/>
-      <c r="J56" s="496"/>
-      <c r="K56" s="497"/>
-      <c r="L56" s="497"/>
-      <c r="M56" s="497"/>
-      <c r="N56" s="534"/>
+      <c r="B56" s="523"/>
+      <c r="C56" s="526" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="527"/>
+      <c r="E56" s="527"/>
+      <c r="F56" s="527"/>
+      <c r="G56" s="527"/>
+      <c r="H56" s="527"/>
+      <c r="I56" s="528"/>
+      <c r="J56" s="516"/>
+      <c r="K56" s="517"/>
+      <c r="L56" s="517"/>
+      <c r="M56" s="517"/>
+      <c r="N56" s="518"/>
     </row>
     <row r="57" spans="1:14" ht="33.75" thickBot="1">
-      <c r="A57" s="503"/>
-      <c r="B57" s="504"/>
+      <c r="A57" s="524"/>
+      <c r="B57" s="525"/>
       <c r="C57" s="159" t="s">
         <v>41</v>
       </c>
@@ -6819,7 +6819,7 @@
       <c r="M57" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="N57" s="535" t="s">
+      <c r="N57" s="501" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6850,7 +6850,7 @@
       <c r="K58" s="136"/>
       <c r="L58" s="68"/>
       <c r="M58" s="68"/>
-      <c r="N58" s="537"/>
+      <c r="N58" s="503"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="308" t="s">
@@ -6877,7 +6877,7 @@
       <c r="K59" s="77"/>
       <c r="L59" s="57"/>
       <c r="M59" s="57"/>
-      <c r="N59" s="538">
+      <c r="N59" s="504">
         <v>30000</v>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
       <c r="K60" s="77"/>
       <c r="L60" s="57"/>
       <c r="M60" s="57"/>
-      <c r="N60" s="538">
+      <c r="N60" s="504">
         <v>30000</v>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       <c r="K61" s="133"/>
       <c r="L61" s="58"/>
       <c r="M61" s="58"/>
-      <c r="N61" s="539">
+      <c r="N61" s="505">
         <v>30000</v>
       </c>
     </row>
@@ -6960,7 +6960,7 @@
       <c r="K62" s="155"/>
       <c r="L62" s="59"/>
       <c r="M62" s="59"/>
-      <c r="N62" s="540">
+      <c r="N62" s="506">
         <v>30000</v>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
       <c r="K63" s="77"/>
       <c r="L63" s="57"/>
       <c r="M63" s="57"/>
-      <c r="N63" s="538"/>
+      <c r="N63" s="504"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="308" t="s">
@@ -7008,7 +7008,7 @@
       <c r="K64" s="77"/>
       <c r="L64" s="57"/>
       <c r="M64" s="57"/>
-      <c r="N64" s="538"/>
+      <c r="N64" s="504"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="308" t="s">
@@ -7033,7 +7033,7 @@
       <c r="K65" s="77"/>
       <c r="L65" s="57"/>
       <c r="M65" s="57"/>
-      <c r="N65" s="538"/>
+      <c r="N65" s="504"/>
     </row>
     <row r="66" spans="1:14" ht="17.25" thickBot="1">
       <c r="A66" s="308" t="s">
@@ -7058,7 +7058,7 @@
       <c r="K66" s="77"/>
       <c r="L66" s="57"/>
       <c r="M66" s="57"/>
-      <c r="N66" s="538"/>
+      <c r="N66" s="504"/>
     </row>
     <row r="67" spans="1:14" ht="17.25" thickBot="1">
       <c r="A67" s="311" t="s">
@@ -7083,7 +7083,7 @@
       <c r="K67" s="79"/>
       <c r="L67" s="60"/>
       <c r="M67" s="60"/>
-      <c r="N67" s="541"/>
+      <c r="N67" s="507"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="310" t="s">
@@ -7110,7 +7110,7 @@
       <c r="K68" s="155"/>
       <c r="L68" s="59"/>
       <c r="M68" s="59"/>
-      <c r="N68" s="540"/>
+      <c r="N68" s="506"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="308" t="s">
@@ -7141,7 +7141,7 @@
       <c r="M69" s="57">
         <v>5000</v>
       </c>
-      <c r="N69" s="538">
+      <c r="N69" s="504">
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
@@ -7175,7 +7175,7 @@
       <c r="M70" s="57">
         <v>5000</v>
       </c>
-      <c r="N70" s="538">
+      <c r="N70" s="504">
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
@@ -7209,7 +7209,7 @@
       <c r="M71" s="60">
         <v>5000</v>
       </c>
-      <c r="N71" s="541">
+      <c r="N71" s="507">
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
@@ -7243,7 +7243,7 @@
       <c r="M72" s="67">
         <v>5000</v>
       </c>
-      <c r="N72" s="542">
+      <c r="N72" s="508">
         <f>SUM(L72:M72)</f>
         <v>35000</v>
       </c>
@@ -7271,7 +7271,7 @@
       <c r="K73" s="136"/>
       <c r="L73" s="68"/>
       <c r="M73" s="68"/>
-      <c r="N73" s="537"/>
+      <c r="N73" s="503"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="308" t="s">
@@ -7296,7 +7296,7 @@
       <c r="K74" s="77"/>
       <c r="L74" s="57"/>
       <c r="M74" s="57"/>
-      <c r="N74" s="538"/>
+      <c r="N74" s="504"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="308" t="s">
@@ -7321,7 +7321,7 @@
       <c r="K75" s="77"/>
       <c r="L75" s="57"/>
       <c r="M75" s="57"/>
-      <c r="N75" s="538"/>
+      <c r="N75" s="504"/>
     </row>
     <row r="76" spans="1:14" ht="17.25" thickBot="1">
       <c r="A76" s="309" t="s">
@@ -7346,7 +7346,7 @@
       <c r="K76" s="133"/>
       <c r="L76" s="58"/>
       <c r="M76" s="58"/>
-      <c r="N76" s="539"/>
+      <c r="N76" s="505"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="310" t="s">
@@ -7372,7 +7372,7 @@
       <c r="K77" s="155"/>
       <c r="L77" s="59"/>
       <c r="M77" s="59"/>
-      <c r="N77" s="540"/>
+      <c r="N77" s="506"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="308" t="s">
@@ -7402,7 +7402,7 @@
         <v>30000</v>
       </c>
       <c r="M78" s="57"/>
-      <c r="N78" s="538">
+      <c r="N78" s="504">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>30000</v>
       </c>
       <c r="M79" s="57"/>
-      <c r="N79" s="538">
+      <c r="N79" s="504">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>30000</v>
       </c>
       <c r="M80" s="58"/>
-      <c r="N80" s="539">
+      <c r="N80" s="505">
         <f t="shared" ref="N80" si="12">SUM(L80:M80)</f>
         <v>30000</v>
       </c>
@@ -7497,22 +7497,22 @@
         <v>30000</v>
       </c>
       <c r="M81" s="60"/>
-      <c r="N81" s="541"/>
+      <c r="N81" s="507"/>
     </row>
     <row r="82" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A82" s="508" t="s">
+      <c r="A82" s="529" t="s">
         <v>180</v>
       </c>
-      <c r="B82" s="509"/>
+      <c r="B82" s="530"/>
       <c r="C82" s="272"/>
       <c r="D82" s="272"/>
       <c r="E82" s="273"/>
-      <c r="F82" s="498">
+      <c r="F82" s="519">
         <f>SUM(F58:G81)</f>
         <v>3100000</v>
       </c>
-      <c r="G82" s="499"/>
-      <c r="H82" s="500"/>
+      <c r="G82" s="520"/>
+      <c r="H82" s="521"/>
       <c r="I82" s="245"/>
       <c r="J82" s="274">
         <f>SUM(J58:J81)</f>
@@ -7562,10 +7562,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="510" t="s">
+      <c r="A1" s="533" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="510"/>
+      <c r="B1" s="533"/>
       <c r="C1" s="495" t="s">
         <v>264</v>
       </c>
@@ -7685,56 +7685,56 @@
       <c r="T2" s="473"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="501" t="s">
+      <c r="A3" s="522" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="502"/>
-      <c r="C3" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="507"/>
-      <c r="J3" s="514" t="s">
+      <c r="B3" s="523"/>
+      <c r="C3" s="526" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="527"/>
+      <c r="E3" s="527"/>
+      <c r="F3" s="527"/>
+      <c r="G3" s="527"/>
+      <c r="H3" s="527"/>
+      <c r="I3" s="528"/>
+      <c r="J3" s="537" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="515"/>
-      <c r="L3" s="515"/>
-      <c r="M3" s="515"/>
-      <c r="N3" s="515"/>
-      <c r="O3" s="515"/>
-      <c r="P3" s="515"/>
-      <c r="Q3" s="516"/>
+      <c r="K3" s="538"/>
+      <c r="L3" s="538"/>
+      <c r="M3" s="538"/>
+      <c r="N3" s="538"/>
+      <c r="O3" s="538"/>
+      <c r="P3" s="538"/>
+      <c r="Q3" s="539"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="517" t="s">
+      <c r="S3" s="540" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="518"/>
-      <c r="U3" s="521" t="s">
+      <c r="T3" s="541"/>
+      <c r="U3" s="544" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="522"/>
-      <c r="W3" s="522"/>
-      <c r="X3" s="522"/>
-      <c r="Y3" s="522"/>
-      <c r="Z3" s="522"/>
-      <c r="AA3" s="523"/>
-      <c r="AB3" s="511" t="s">
+      <c r="V3" s="545"/>
+      <c r="W3" s="545"/>
+      <c r="X3" s="545"/>
+      <c r="Y3" s="545"/>
+      <c r="Z3" s="545"/>
+      <c r="AA3" s="546"/>
+      <c r="AB3" s="534" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="511"/>
-      <c r="AD3" s="511"/>
-      <c r="AE3" s="511"/>
-      <c r="AG3" s="511" t="s">
+      <c r="AC3" s="534"/>
+      <c r="AD3" s="534"/>
+      <c r="AE3" s="534"/>
+      <c r="AG3" s="534" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="503"/>
-      <c r="B4" s="504"/>
+      <c r="A4" s="524"/>
+      <c r="B4" s="525"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -7781,8 +7781,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="520"/>
+      <c r="S4" s="542"/>
+      <c r="T4" s="543"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -7816,7 +7816,7 @@
       <c r="AE4" s="458" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="511"/>
+      <c r="AG4" s="534"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -11717,19 +11717,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="508" t="s">
+      <c r="A66" s="529" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="509"/>
+      <c r="B66" s="530"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="498">
+      <c r="F66" s="519">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="499"/>
-      <c r="H66" s="500"/>
+      <c r="G66" s="520"/>
+      <c r="H66" s="521"/>
       <c r="I66" s="368"/>
       <c r="J66" s="419">
         <f>SUM(J5:J65)</f>
@@ -11748,10 +11748,10 @@
       </c>
       <c r="P66" s="422"/>
       <c r="Q66" s="423"/>
-      <c r="S66" s="512" t="s">
+      <c r="S66" s="535" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="513"/>
+      <c r="T66" s="536"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>166</v>
@@ -11857,56 +11857,56 @@
       <c r="T2" s="473"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="501" t="s">
+      <c r="A3" s="522" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="502"/>
-      <c r="C3" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="507"/>
-      <c r="J3" s="514" t="s">
+      <c r="B3" s="523"/>
+      <c r="C3" s="526" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="527"/>
+      <c r="E3" s="527"/>
+      <c r="F3" s="527"/>
+      <c r="G3" s="527"/>
+      <c r="H3" s="527"/>
+      <c r="I3" s="528"/>
+      <c r="J3" s="537" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="515"/>
-      <c r="L3" s="515"/>
-      <c r="M3" s="515"/>
-      <c r="N3" s="515"/>
-      <c r="O3" s="515"/>
-      <c r="P3" s="515"/>
-      <c r="Q3" s="516"/>
+      <c r="K3" s="538"/>
+      <c r="L3" s="538"/>
+      <c r="M3" s="538"/>
+      <c r="N3" s="538"/>
+      <c r="O3" s="538"/>
+      <c r="P3" s="538"/>
+      <c r="Q3" s="539"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="517" t="s">
+      <c r="S3" s="540" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="518"/>
-      <c r="U3" s="521" t="s">
+      <c r="T3" s="541"/>
+      <c r="U3" s="544" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="522"/>
-      <c r="W3" s="522"/>
-      <c r="X3" s="522"/>
-      <c r="Y3" s="522"/>
-      <c r="Z3" s="522"/>
-      <c r="AA3" s="523"/>
-      <c r="AB3" s="511" t="s">
+      <c r="V3" s="545"/>
+      <c r="W3" s="545"/>
+      <c r="X3" s="545"/>
+      <c r="Y3" s="545"/>
+      <c r="Z3" s="545"/>
+      <c r="AA3" s="546"/>
+      <c r="AB3" s="534" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="511"/>
-      <c r="AD3" s="511"/>
-      <c r="AE3" s="511"/>
-      <c r="AG3" s="511" t="s">
+      <c r="AC3" s="534"/>
+      <c r="AD3" s="534"/>
+      <c r="AE3" s="534"/>
+      <c r="AG3" s="534" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="503"/>
-      <c r="B4" s="504"/>
+      <c r="A4" s="524"/>
+      <c r="B4" s="525"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -11953,8 +11953,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="520"/>
+      <c r="S4" s="542"/>
+      <c r="T4" s="543"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -11988,7 +11988,7 @@
       <c r="AE4" s="444" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="511"/>
+      <c r="AG4" s="534"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -15863,19 +15863,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="508" t="s">
+      <c r="A66" s="529" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="509"/>
+      <c r="B66" s="530"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="498">
+      <c r="F66" s="519">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="499"/>
-      <c r="H66" s="500"/>
+      <c r="G66" s="520"/>
+      <c r="H66" s="521"/>
       <c r="I66" s="368"/>
       <c r="J66" s="419">
         <f>SUM(J5:J65)</f>
@@ -15894,10 +15894,10 @@
       </c>
       <c r="P66" s="422"/>
       <c r="Q66" s="423"/>
-      <c r="S66" s="512" t="s">
+      <c r="S66" s="535" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="513"/>
+      <c r="T66" s="536"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>165</v>
@@ -15994,56 +15994,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="501" t="s">
+      <c r="A2" s="522" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="502"/>
-      <c r="C2" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
-      <c r="H2" s="506"/>
-      <c r="I2" s="507"/>
-      <c r="J2" s="514" t="s">
+      <c r="B2" s="523"/>
+      <c r="C2" s="526" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="527"/>
+      <c r="E2" s="527"/>
+      <c r="F2" s="527"/>
+      <c r="G2" s="527"/>
+      <c r="H2" s="527"/>
+      <c r="I2" s="528"/>
+      <c r="J2" s="537" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="515"/>
-      <c r="L2" s="515"/>
-      <c r="M2" s="515"/>
-      <c r="N2" s="515"/>
-      <c r="O2" s="515"/>
-      <c r="P2" s="515"/>
-      <c r="Q2" s="516"/>
+      <c r="K2" s="538"/>
+      <c r="L2" s="538"/>
+      <c r="M2" s="538"/>
+      <c r="N2" s="538"/>
+      <c r="O2" s="538"/>
+      <c r="P2" s="538"/>
+      <c r="Q2" s="539"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="517" t="s">
+      <c r="S2" s="540" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="518"/>
-      <c r="U2" s="521" t="s">
+      <c r="T2" s="541"/>
+      <c r="U2" s="544" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="522"/>
-      <c r="W2" s="522"/>
-      <c r="X2" s="522"/>
-      <c r="Y2" s="522"/>
-      <c r="Z2" s="522"/>
-      <c r="AA2" s="523"/>
-      <c r="AB2" s="511" t="s">
+      <c r="V2" s="545"/>
+      <c r="W2" s="545"/>
+      <c r="X2" s="545"/>
+      <c r="Y2" s="545"/>
+      <c r="Z2" s="545"/>
+      <c r="AA2" s="546"/>
+      <c r="AB2" s="534" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="511"/>
-      <c r="AD2" s="511"/>
-      <c r="AE2" s="511"/>
-      <c r="AG2" s="511" t="s">
+      <c r="AC2" s="534"/>
+      <c r="AD2" s="534"/>
+      <c r="AE2" s="534"/>
+      <c r="AG2" s="534" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="503"/>
-      <c r="B3" s="504"/>
+      <c r="A3" s="524"/>
+      <c r="B3" s="525"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -16090,8 +16090,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="519"/>
-      <c r="T3" s="520"/>
+      <c r="S3" s="542"/>
+      <c r="T3" s="543"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -16125,7 +16125,7 @@
       <c r="AE3" s="437" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="511"/>
+      <c r="AG3" s="534"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="306" t="s">
@@ -19984,19 +19984,19 @@
       <c r="AG63" s="18"/>
     </row>
     <row r="64" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="508" t="s">
+      <c r="A64" s="529" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="509"/>
+      <c r="B64" s="530"/>
       <c r="C64" s="272"/>
       <c r="D64" s="272"/>
       <c r="E64" s="273"/>
-      <c r="F64" s="498">
+      <c r="F64" s="519">
         <f>SUM(F4:H63)</f>
         <v>10300000</v>
       </c>
-      <c r="G64" s="499"/>
-      <c r="H64" s="500"/>
+      <c r="G64" s="520"/>
+      <c r="H64" s="521"/>
       <c r="I64" s="368"/>
       <c r="J64" s="419">
         <f>SUM(J4:J63)</f>
@@ -20015,10 +20015,10 @@
       </c>
       <c r="P64" s="422"/>
       <c r="Q64" s="423"/>
-      <c r="S64" s="512" t="s">
+      <c r="S64" s="535" t="s">
         <v>180</v>
       </c>
-      <c r="T64" s="513"/>
+      <c r="T64" s="536"/>
       <c r="U64" s="320">
         <f>SUM(U4:U63)</f>
         <v>162</v>
@@ -20117,56 +20117,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="501" t="s">
+      <c r="A2" s="522" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="502"/>
-      <c r="C2" s="505" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
-      <c r="H2" s="506"/>
-      <c r="I2" s="507"/>
-      <c r="J2" s="514" t="s">
+      <c r="B2" s="523"/>
+      <c r="C2" s="526" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="527"/>
+      <c r="E2" s="527"/>
+      <c r="F2" s="527"/>
+      <c r="G2" s="527"/>
+      <c r="H2" s="527"/>
+      <c r="I2" s="528"/>
+      <c r="J2" s="537" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="515"/>
-      <c r="L2" s="515"/>
-      <c r="M2" s="515"/>
-      <c r="N2" s="515"/>
-      <c r="O2" s="515"/>
-      <c r="P2" s="515"/>
-      <c r="Q2" s="516"/>
+      <c r="K2" s="538"/>
+      <c r="L2" s="538"/>
+      <c r="M2" s="538"/>
+      <c r="N2" s="538"/>
+      <c r="O2" s="538"/>
+      <c r="P2" s="538"/>
+      <c r="Q2" s="539"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="517" t="s">
+      <c r="S2" s="540" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="518"/>
-      <c r="U2" s="521" t="s">
+      <c r="T2" s="541"/>
+      <c r="U2" s="544" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="522"/>
-      <c r="W2" s="522"/>
-      <c r="X2" s="522"/>
-      <c r="Y2" s="522"/>
-      <c r="Z2" s="522"/>
-      <c r="AA2" s="523"/>
-      <c r="AB2" s="511" t="s">
+      <c r="V2" s="545"/>
+      <c r="W2" s="545"/>
+      <c r="X2" s="545"/>
+      <c r="Y2" s="545"/>
+      <c r="Z2" s="545"/>
+      <c r="AA2" s="546"/>
+      <c r="AB2" s="534" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="511"/>
-      <c r="AD2" s="511"/>
-      <c r="AE2" s="511"/>
-      <c r="AG2" s="511" t="s">
+      <c r="AC2" s="534"/>
+      <c r="AD2" s="534"/>
+      <c r="AE2" s="534"/>
+      <c r="AG2" s="534" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="503"/>
-      <c r="B3" s="504"/>
+      <c r="A3" s="524"/>
+      <c r="B3" s="525"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -20213,8 +20213,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="519"/>
-      <c r="T3" s="520"/>
+      <c r="S3" s="542"/>
+      <c r="T3" s="543"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -20248,7 +20248,7 @@
       <c r="AE3" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="511"/>
+      <c r="AG3" s="534"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="305" t="s">
@@ -24039,21 +24039,21 @@
       <c r="AG62" s="18"/>
     </row>
     <row r="63" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="508" t="s">
+      <c r="A63" s="529" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="509"/>
+      <c r="B63" s="530"/>
       <c r="C63" s="272"/>
       <c r="D63" s="272"/>
       <c r="E63" s="273"/>
       <c r="F63" s="275">
         <v>41</v>
       </c>
-      <c r="G63" s="524">
+      <c r="G63" s="547">
         <f>SUM(F4:H62)</f>
         <v>10100000</v>
       </c>
-      <c r="H63" s="525"/>
+      <c r="H63" s="548"/>
       <c r="I63" s="245"/>
       <c r="J63" s="274">
         <f>SUM(J4:J62)</f>
@@ -24072,10 +24072,10 @@
       </c>
       <c r="P63" s="247"/>
       <c r="Q63" s="248"/>
-      <c r="S63" s="512" t="s">
+      <c r="S63" s="535" t="s">
         <v>180</v>
       </c>
-      <c r="T63" s="513"/>
+      <c r="T63" s="536"/>
       <c r="U63" s="320">
         <f>SUM(U4:U62)</f>
         <v>10</v>
@@ -24096,16 +24096,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:AA2"/>
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="S63:T63"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/01 회원사사용료현황(2020년).xlsx
+++ b/01 회원사사용료현황(2020년).xlsx
@@ -5243,7 +5243,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="31.5">
       <c r="A1" s="515">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="515"/>
       <c r="G1" s="73"/>
@@ -5580,7 +5580,7 @@
       <c r="H13" s="77"/>
       <c r="I13" s="179"/>
       <c r="J13" s="45">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="77"/>
       <c r="L13" s="332">
@@ -5608,11 +5608,13 @@
         <f t="shared" ref="F14" si="4">SUM(C14:E14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="344"/>
+      <c r="G14" s="344">
+        <v>100000</v>
+      </c>
       <c r="H14" s="77"/>
       <c r="I14" s="179"/>
       <c r="J14" s="45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="77"/>
       <c r="L14" s="332">
@@ -5931,7 +5933,7 @@
         <v>300000</v>
       </c>
       <c r="J26" s="48">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="54">
@@ -5965,7 +5967,7 @@
       <c r="H27" s="77"/>
       <c r="I27" s="179"/>
       <c r="J27" s="45">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K27" s="77"/>
       <c r="L27" s="54">
@@ -6722,14 +6724,14 @@
       <c r="E53" s="498"/>
       <c r="F53" s="519">
         <f>SUM(F5:G52)</f>
-        <v>6900000</v>
+        <v>7000000</v>
       </c>
       <c r="G53" s="520"/>
       <c r="H53" s="521"/>
       <c r="I53" s="499"/>
       <c r="J53" s="500">
         <f>SUM(J5:J52)</f>
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K53" s="420"/>
       <c r="L53" s="421"/>
@@ -6739,7 +6741,7 @@
     <row r="54" spans="1:14" ht="31.5">
       <c r="A54" s="515">
         <f>A1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" s="515"/>
       <c r="G54" s="73"/>
@@ -7166,7 +7168,7 @@
       <c r="H70" s="77"/>
       <c r="I70" s="179"/>
       <c r="J70" s="45">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K70" s="77"/>
       <c r="L70" s="57">
@@ -7200,7 +7202,7 @@
       <c r="H71" s="79"/>
       <c r="I71" s="177"/>
       <c r="J71" s="46">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K71" s="79"/>
       <c r="L71" s="60">
@@ -7516,7 +7518,7 @@
       <c r="I82" s="245"/>
       <c r="J82" s="274">
         <f>SUM(J58:J81)</f>
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K82" s="246"/>
       <c r="L82" s="244"/>
@@ -24096,16 +24098,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="U2:AA2"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/01 회원사사용료현황(2020년).xlsx
+++ b/01 회원사사용료현황(2020년).xlsx
@@ -5219,7 +5219,7 @@
   <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5798,7 +5798,7 @@
         <v>300000</v>
       </c>
       <c r="J21" s="122">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="318">
@@ -6731,7 +6731,7 @@
       <c r="I53" s="499"/>
       <c r="J53" s="500">
         <f>SUM(J5:J52)</f>
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K53" s="420"/>
       <c r="L53" s="421"/>
@@ -24098,16 +24098,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:AA2"/>
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="S63:T63"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/01 회원사사용료현황(2020년).xlsx
+++ b/01 회원사사용료현황(2020년).xlsx
@@ -5219,7 +5219,7 @@
   <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O82"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5238,12 +5238,12 @@
     <col min="13" max="13" width="7.5" style="81" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="9.875" style="83" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5">
       <c r="A1" s="515">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" s="515"/>
       <c r="G1" s="73"/>
@@ -5349,7 +5349,7 @@
       <c r="H5" s="210"/>
       <c r="I5" s="212"/>
       <c r="J5" s="327">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" s="210"/>
       <c r="L5" s="209">
@@ -5362,9 +5362,10 @@
         <f>SUM(L5:M5)</f>
         <v>40000</v>
       </c>
+      <c r="O5" s="490"/>
       <c r="P5" s="490">
-        <f>40000*J5*3</f>
-        <v>8040000</v>
+        <f>40000*$J$5*3</f>
+        <v>8160000</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5580,7 +5581,7 @@
       <c r="H13" s="77"/>
       <c r="I13" s="179"/>
       <c r="J13" s="45">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="77"/>
       <c r="L13" s="332">
@@ -5798,7 +5799,7 @@
         <v>300000</v>
       </c>
       <c r="J21" s="122">
-        <v>136</v>
+        <v>1367</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="318">
@@ -6097,7 +6098,7 @@
       <c r="H31" s="133"/>
       <c r="I31" s="180"/>
       <c r="J31" s="132">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K31" s="133"/>
       <c r="L31" s="58">
@@ -6731,7 +6732,7 @@
       <c r="I53" s="499"/>
       <c r="J53" s="500">
         <f>SUM(J5:J52)</f>
-        <v>813</v>
+        <v>2043</v>
       </c>
       <c r="K53" s="420"/>
       <c r="L53" s="421"/>
@@ -6741,7 +6742,7 @@
     <row r="54" spans="1:14" ht="31.5">
       <c r="A54" s="515">
         <f>A1</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B54" s="515"/>
       <c r="G54" s="73"/>
@@ -7457,7 +7458,9 @@
       <c r="F80" s="349">
         <v>100000</v>
       </c>
-      <c r="G80" s="350"/>
+      <c r="G80" s="350">
+        <v>50000</v>
+      </c>
       <c r="H80" s="133"/>
       <c r="I80" s="180"/>
       <c r="J80" s="132">
@@ -7488,7 +7491,9 @@
       <c r="F81" s="345">
         <v>100000</v>
       </c>
-      <c r="G81" s="348"/>
+      <c r="G81" s="348">
+        <v>50000</v>
+      </c>
       <c r="H81" s="79"/>
       <c r="I81" s="177"/>
       <c r="J81" s="46">
@@ -7511,7 +7516,7 @@
       <c r="E82" s="273"/>
       <c r="F82" s="519">
         <f>SUM(F58:G81)</f>
-        <v>3100000</v>
+        <v>3200000</v>
       </c>
       <c r="G82" s="520"/>
       <c r="H82" s="521"/>

--- a/01 회원사사용료현황(2020년).xlsx
+++ b/01 회원사사용료현황(2020년).xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="계산서 보고" sheetId="26" r:id="rId1"/>
-    <sheet name="홈페이지" sheetId="37" r:id="rId2"/>
+    <sheet name="홈페이지(중지)" sheetId="37" r:id="rId2"/>
     <sheet name="보고용 (19'02월))" sheetId="36" r:id="rId3"/>
     <sheet name="보고용 (19'01월))" sheetId="34" r:id="rId4"/>
     <sheet name="보고용 (18'12월)" sheetId="33" r:id="rId5"/>
@@ -29,6 +29,58 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hana</author>
+  </authors>
+  <commentList>
+    <comment ref="S44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>년발</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선납으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10% DC</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hana</author>
@@ -148,7 +200,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hana</author>
@@ -814,7 +866,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="287">
   <si>
     <t>조합</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2042,14 +2094,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2019년 4월부터 년발행으로 변경 10% DC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그램사용료 25+서버임대료5 = 30만원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12월까지 선납</t>
   </si>
   <si>
@@ -2146,6 +2190,42 @@
   </si>
   <si>
     <t>충남 서부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ_010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월까지 선납</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산서사용료 5만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 프로그램</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 계산서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 3,240,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산서    100,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북 남동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ_407</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2153,13 +2233,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0\ &quot;개&quot;\ &quot;조&quot;&quot;합&quot;"/>
     <numFmt numFmtId="177" formatCode="#,##0&quot;원&quot;"/>
     <numFmt numFmtId="178" formatCode="#,##0&quot;월&quot;"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2411,6 +2492,21 @@
       <color theme="0" tint="-0.14996795556505021"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -3277,7 +3373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="549">
+  <cellXfs count="557">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4822,6 +4918,30 @@
     </xf>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5211,12 +5331,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:AB82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -5237,21 +5357,25 @@
     <col min="12" max="12" width="8.75" style="81" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" style="81" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="9.875" style="83" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.125" customWidth="1"/>
+    <col min="27" max="28" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5">
-      <c r="A1" s="515">
-        <v>8</v>
-      </c>
-      <c r="B1" s="515"/>
+    <row r="1" spans="1:20" ht="31.5">
+      <c r="A1" s="523">
+        <v>3</v>
+      </c>
+      <c r="B1" s="523"/>
       <c r="G1" s="73"/>
       <c r="N1" s="199"/>
     </row>
-    <row r="2" spans="1:16" ht="17.25" thickBot="1">
+    <row r="2" spans="1:20" ht="17.25" thickBot="1">
       <c r="A2" s="475" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" s="476"/>
       <c r="C2" s="20"/>
@@ -5267,29 +5391,29 @@
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="522" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="523"/>
-      <c r="C3" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="527"/>
-      <c r="E3" s="527"/>
-      <c r="F3" s="527"/>
-      <c r="G3" s="527"/>
-      <c r="H3" s="527"/>
-      <c r="I3" s="528"/>
-      <c r="J3" s="516"/>
-      <c r="K3" s="517"/>
-      <c r="L3" s="517"/>
-      <c r="M3" s="517"/>
-      <c r="N3" s="518"/>
-    </row>
-    <row r="4" spans="1:16" ht="33.75" thickBot="1">
-      <c r="A4" s="524"/>
-      <c r="B4" s="525"/>
+    <row r="3" spans="1:20">
+      <c r="A3" s="530" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="531"/>
+      <c r="C3" s="534" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="535"/>
+      <c r="E3" s="535"/>
+      <c r="F3" s="535"/>
+      <c r="G3" s="535"/>
+      <c r="H3" s="535"/>
+      <c r="I3" s="536"/>
+      <c r="J3" s="524"/>
+      <c r="K3" s="525"/>
+      <c r="L3" s="525"/>
+      <c r="M3" s="525"/>
+      <c r="N3" s="526"/>
+    </row>
+    <row r="4" spans="1:20" ht="33.75" thickBot="1">
+      <c r="A4" s="532"/>
+      <c r="B4" s="533"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -5327,7 +5451,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="17.25" thickBot="1">
+    <row r="5" spans="1:20" ht="17.25" thickBot="1">
       <c r="A5" s="305" t="s">
         <v>3</v>
       </c>
@@ -5363,12 +5487,13 @@
         <v>40000</v>
       </c>
       <c r="O5" s="490"/>
-      <c r="P5" s="490">
+      <c r="P5" s="490"/>
+      <c r="T5" s="490">
         <f>40000*$J$5*3</f>
         <v>8160000</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:20">
       <c r="A6" s="310" t="s">
         <v>138</v>
       </c>
@@ -5390,7 +5515,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="176"/>
       <c r="J6" s="122">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="53">
@@ -5404,7 +5529,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:20">
       <c r="A7" s="308" t="s">
         <v>139</v>
       </c>
@@ -5427,7 +5552,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="504"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:20">
       <c r="A8" s="308" t="s">
         <v>140</v>
       </c>
@@ -5450,7 +5575,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="504"/>
     </row>
-    <row r="9" spans="1:16" ht="17.25" thickBot="1">
+    <row r="9" spans="1:20" ht="17.25" thickBot="1">
       <c r="A9" s="308" t="s">
         <v>141</v>
       </c>
@@ -5473,7 +5598,7 @@
       <c r="M9" s="54"/>
       <c r="N9" s="504"/>
     </row>
-    <row r="10" spans="1:16" ht="17.25" hidden="1" thickBot="1">
+    <row r="10" spans="1:20" ht="17.25" hidden="1" thickBot="1">
       <c r="A10" s="311"/>
       <c r="B10" s="284" t="s">
         <v>239</v>
@@ -5491,7 +5616,7 @@
       <c r="M10" s="55"/>
       <c r="N10" s="507"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:20">
       <c r="A11" s="310" t="s">
         <v>5</v>
       </c>
@@ -5527,7 +5652,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:20">
       <c r="A12" s="308" t="s">
         <v>175</v>
       </c>
@@ -5561,12 +5686,12 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:20">
       <c r="A13" s="308" t="s">
         <v>143</v>
       </c>
       <c r="B13" s="281" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C13" s="331"/>
       <c r="D13" s="332"/>
@@ -5595,12 +5720,12 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:20">
       <c r="A14" s="308" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="281" t="s">
         <v>273</v>
-      </c>
-      <c r="B14" s="281" t="s">
-        <v>275</v>
       </c>
       <c r="C14" s="331"/>
       <c r="D14" s="332"/>
@@ -5629,12 +5754,12 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17.25" thickBot="1">
+    <row r="15" spans="1:20" ht="17.25" thickBot="1">
       <c r="A15" s="308" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B15" s="281" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C15" s="331"/>
       <c r="D15" s="332"/>
@@ -5661,7 +5786,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1">
+    <row r="16" spans="1:20" ht="17.25" hidden="1" thickBot="1">
       <c r="A16" s="330"/>
       <c r="B16" s="286" t="s">
         <v>238</v>
@@ -5799,7 +5924,7 @@
         <v>300000</v>
       </c>
       <c r="J21" s="122">
-        <v>1367</v>
+        <v>137</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="318">
@@ -5934,7 +6059,7 @@
         <v>300000</v>
       </c>
       <c r="J26" s="48">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="54">
@@ -5968,7 +6093,7 @@
       <c r="H27" s="77"/>
       <c r="I27" s="179"/>
       <c r="J27" s="45">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27" s="77"/>
       <c r="L27" s="54">
@@ -6044,10 +6169,10 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="308" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="B30" s="286" t="s">
-        <v>63</v>
+        <v>285</v>
       </c>
       <c r="C30" s="102">
         <v>150000</v>
@@ -6098,7 +6223,7 @@
       <c r="H31" s="133"/>
       <c r="I31" s="180"/>
       <c r="J31" s="132">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K31" s="133"/>
       <c r="L31" s="58">
@@ -6140,12 +6265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:28">
       <c r="A33" s="308" t="s">
         <v>151</v>
       </c>
       <c r="B33" s="281" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C33" s="111"/>
       <c r="D33" s="64"/>
@@ -6166,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="17.25" thickBot="1">
+    <row r="34" spans="1:28" ht="17.25" thickBot="1">
       <c r="A34" s="309" t="s">
         <v>227</v>
       </c>
@@ -6202,7 +6327,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="17.25" hidden="1" thickBot="1">
+    <row r="35" spans="1:28" ht="17.25" hidden="1" thickBot="1">
       <c r="A35" s="311"/>
       <c r="B35" s="284" t="s">
         <v>241</v>
@@ -6226,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:28">
       <c r="A36" s="310" t="s">
         <v>16</v>
       </c>
@@ -6248,7 +6373,7 @@
       <c r="M36" s="59"/>
       <c r="N36" s="506"/>
     </row>
-    <row r="37" spans="1:18" ht="17.25" thickBot="1">
+    <row r="37" spans="1:28" ht="17.25" thickBot="1">
       <c r="A37" s="311" t="s">
         <v>152</v>
       </c>
@@ -6267,7 +6392,7 @@
       <c r="H37" s="79"/>
       <c r="I37" s="177"/>
       <c r="J37" s="46">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K37" s="79"/>
       <c r="L37" s="60">
@@ -6280,7 +6405,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:28">
       <c r="A38" s="310" t="s">
         <v>18</v>
       </c>
@@ -6304,7 +6429,7 @@
       <c r="M38" s="59"/>
       <c r="N38" s="506"/>
     </row>
-    <row r="39" spans="1:18" ht="17.25" thickBot="1">
+    <row r="39" spans="1:28" ht="17.25" thickBot="1">
       <c r="A39" s="308" t="s">
         <v>153</v>
       </c>
@@ -6323,7 +6448,7 @@
       <c r="H39" s="77"/>
       <c r="I39" s="179"/>
       <c r="J39" s="45">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K39" s="77"/>
       <c r="L39" s="57">
@@ -6336,7 +6461,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1">
+    <row r="40" spans="1:28" ht="17.25" hidden="1" thickBot="1">
       <c r="A40" s="308"/>
       <c r="B40" s="286" t="s">
         <v>241</v>
@@ -6354,7 +6479,7 @@
       <c r="M40" s="57"/>
       <c r="N40" s="504"/>
     </row>
-    <row r="41" spans="1:18" ht="17.25" hidden="1" thickBot="1">
+    <row r="41" spans="1:28" ht="17.25" hidden="1" thickBot="1">
       <c r="A41" s="311"/>
       <c r="B41" s="284" t="s">
         <v>246</v>
@@ -6378,12 +6503,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:28">
       <c r="A42" s="310" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="283" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C42" s="318">
         <v>200000</v>
@@ -6409,7 +6534,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="17.25" thickBot="1">
+    <row r="43" spans="1:28" ht="17.25" thickBot="1">
       <c r="A43" s="308" t="s">
         <v>154</v>
       </c>
@@ -6429,9 +6554,9 @@
       <c r="M43" s="57"/>
       <c r="N43" s="504"/>
     </row>
-    <row r="44" spans="1:18" ht="17.25" thickBot="1">
+    <row r="44" spans="1:28" ht="17.25" thickBot="1">
       <c r="A44" s="306" t="s">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="B44" s="279" t="s">
         <v>23</v>
@@ -6460,19 +6585,30 @@
         <v>50000</v>
       </c>
       <c r="O44" s="489" t="s">
-        <v>254</v>
-      </c>
-      <c r="P44" s="489" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q44" t="s">
         <v>252</v>
       </c>
-      <c r="R44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="17.25" thickBot="1">
+      <c r="P44" s="518" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q44" s="490">
+        <f>SUM(S44:S45)</f>
+        <v>3340000</v>
+      </c>
+      <c r="R44" s="519" t="s">
+        <v>281</v>
+      </c>
+      <c r="S44" s="517">
+        <f>F44*12*0.9</f>
+        <v>3240000</v>
+      </c>
+      <c r="T44" s="518" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y44" s="489"/>
+      <c r="AA44" s="515"/>
+      <c r="AB44" s="516"/>
+    </row>
+    <row r="45" spans="1:28" ht="17.25" thickBot="1">
       <c r="A45" s="312" t="s">
         <v>24</v>
       </c>
@@ -6502,8 +6638,20 @@
       <c r="N45" s="513">
         <v>50000</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="17.25" hidden="1" thickBot="1">
+      <c r="Q45" s="521" t="s">
+        <v>283</v>
+      </c>
+      <c r="R45" s="520" t="s">
+        <v>282</v>
+      </c>
+      <c r="S45" s="517">
+        <v>100000</v>
+      </c>
+      <c r="U45" s="518" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="17.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A46" s="308"/>
       <c r="B46" s="286" t="s">
         <v>240</v>
@@ -6526,13 +6674,14 @@
         <f t="shared" ref="N46" si="11">SUM(L46:M46)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="Q46" s="522"/>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="310" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="283" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C47" s="154">
         <v>500000</v>
@@ -6558,8 +6707,11 @@
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="17.25" thickBot="1">
+      <c r="Q47" s="522" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="17.25" thickBot="1">
       <c r="A48" s="311" t="s">
         <v>155</v>
       </c>
@@ -6609,7 +6761,7 @@
         <v>300000</v>
       </c>
       <c r="J49" s="237">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K49" s="235"/>
       <c r="L49" s="234"/>
@@ -6638,7 +6790,7 @@
       <c r="H50" s="147"/>
       <c r="I50" s="182"/>
       <c r="J50" s="148">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K50" s="147"/>
       <c r="L50" s="67">
@@ -6716,23 +6868,23 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A53" s="531" t="s">
+      <c r="A53" s="539" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="532"/>
+      <c r="B53" s="540"/>
       <c r="C53" s="497"/>
       <c r="D53" s="497"/>
       <c r="E53" s="498"/>
-      <c r="F53" s="519">
+      <c r="F53" s="527">
         <f>SUM(F5:G52)</f>
         <v>7000000</v>
       </c>
-      <c r="G53" s="520"/>
-      <c r="H53" s="521"/>
+      <c r="G53" s="528"/>
+      <c r="H53" s="529"/>
       <c r="I53" s="499"/>
       <c r="J53" s="500">
         <f>SUM(J5:J52)</f>
-        <v>2043</v>
+        <v>819</v>
       </c>
       <c r="K53" s="420"/>
       <c r="L53" s="421"/>
@@ -6740,17 +6892,17 @@
       <c r="N53" s="423"/>
     </row>
     <row r="54" spans="1:14" ht="31.5">
-      <c r="A54" s="515">
+      <c r="A54" s="523">
         <f>A1</f>
-        <v>8</v>
-      </c>
-      <c r="B54" s="515"/>
+        <v>3</v>
+      </c>
+      <c r="B54" s="523"/>
       <c r="G54" s="73"/>
       <c r="N54" s="199"/>
     </row>
     <row r="55" spans="1:14" ht="17.25" thickBot="1">
       <c r="A55" s="475" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B55" s="476"/>
       <c r="C55" s="20"/>
@@ -6767,28 +6919,28 @@
       <c r="N55" s="20"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="522" t="s">
-        <v>255</v>
-      </c>
-      <c r="B56" s="523"/>
-      <c r="C56" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="527"/>
-      <c r="E56" s="527"/>
-      <c r="F56" s="527"/>
-      <c r="G56" s="527"/>
-      <c r="H56" s="527"/>
-      <c r="I56" s="528"/>
-      <c r="J56" s="516"/>
-      <c r="K56" s="517"/>
-      <c r="L56" s="517"/>
-      <c r="M56" s="517"/>
-      <c r="N56" s="518"/>
+      <c r="A56" s="530" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" s="531"/>
+      <c r="C56" s="534" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="535"/>
+      <c r="E56" s="535"/>
+      <c r="F56" s="535"/>
+      <c r="G56" s="535"/>
+      <c r="H56" s="535"/>
+      <c r="I56" s="536"/>
+      <c r="J56" s="524"/>
+      <c r="K56" s="525"/>
+      <c r="L56" s="525"/>
+      <c r="M56" s="525"/>
+      <c r="N56" s="526"/>
     </row>
     <row r="57" spans="1:14" ht="33.75" thickBot="1">
-      <c r="A57" s="524"/>
-      <c r="B57" s="525"/>
+      <c r="A57" s="532"/>
+      <c r="B57" s="533"/>
       <c r="C57" s="159" t="s">
         <v>41</v>
       </c>
@@ -6878,8 +7030,12 @@
         <v>12</v>
       </c>
       <c r="K59" s="77"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
+      <c r="L59" s="57">
+        <v>30000</v>
+      </c>
+      <c r="M59" s="57">
+        <v>0</v>
+      </c>
       <c r="N59" s="504">
         <v>30000</v>
       </c>
@@ -6905,8 +7061,12 @@
         <v>13</v>
       </c>
       <c r="K60" s="77"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
+      <c r="L60" s="57">
+        <v>30000</v>
+      </c>
+      <c r="M60" s="57">
+        <v>0</v>
+      </c>
       <c r="N60" s="504">
         <v>30000</v>
       </c>
@@ -6932,8 +7092,12 @@
         <v>14</v>
       </c>
       <c r="K61" s="133"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="58"/>
+      <c r="L61" s="58">
+        <v>30000</v>
+      </c>
+      <c r="M61" s="58">
+        <v>0</v>
+      </c>
       <c r="N61" s="505">
         <v>30000</v>
       </c>
@@ -6958,7 +7122,7 @@
       <c r="H62" s="155"/>
       <c r="I62" s="184"/>
       <c r="J62" s="156">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K62" s="155"/>
       <c r="L62" s="59"/>
@@ -7270,11 +7434,20 @@
       </c>
       <c r="H73" s="137"/>
       <c r="I73" s="178"/>
-      <c r="J73" s="117"/>
+      <c r="J73" s="117">
+        <v>77</v>
+      </c>
       <c r="K73" s="136"/>
-      <c r="L73" s="68"/>
-      <c r="M73" s="68"/>
-      <c r="N73" s="503"/>
+      <c r="L73" s="68">
+        <v>30000</v>
+      </c>
+      <c r="M73" s="68">
+        <v>0</v>
+      </c>
+      <c r="N73" s="503">
+        <f>SUM(L73:M73)</f>
+        <v>30000</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="308" t="s">
@@ -7415,7 +7588,7 @@
         <v>172</v>
       </c>
       <c r="B79" s="281" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C79" s="102">
         <v>150000</v>
@@ -7448,7 +7621,7 @@
         <v>173</v>
       </c>
       <c r="B80" s="282" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C80" s="131">
         <v>150000</v>
@@ -7478,10 +7651,10 @@
     </row>
     <row r="81" spans="1:14" ht="17.25" thickBot="1">
       <c r="A81" s="311" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B81" s="451" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C81" s="103">
         <v>150000</v>
@@ -7507,23 +7680,23 @@
       <c r="N81" s="507"/>
     </row>
     <row r="82" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A82" s="529" t="s">
+      <c r="A82" s="537" t="s">
         <v>180</v>
       </c>
-      <c r="B82" s="530"/>
+      <c r="B82" s="538"/>
       <c r="C82" s="272"/>
       <c r="D82" s="272"/>
       <c r="E82" s="273"/>
-      <c r="F82" s="519">
+      <c r="F82" s="527">
         <f>SUM(F58:G81)</f>
         <v>3200000</v>
       </c>
-      <c r="G82" s="520"/>
-      <c r="H82" s="521"/>
+      <c r="G82" s="528"/>
+      <c r="H82" s="529"/>
       <c r="I82" s="245"/>
       <c r="J82" s="274">
         <f>SUM(J58:J81)</f>
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="K82" s="246"/>
       <c r="L82" s="244"/>
@@ -7547,7 +7720,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59055118110236227" bottom="0.31496062992125984" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7556,7 +7730,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7569,29 +7743,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="533" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="533"/>
+      <c r="A1" s="541" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="541"/>
       <c r="C1" s="495" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D1" s="495" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E1" s="495" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="494" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" s="493" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2" s="493" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D2" s="492">
         <v>44352</v>
@@ -7602,13 +7776,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="494" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B3" s="493" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C3" s="493" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D3" s="492">
         <v>44146</v>
@@ -7692,56 +7866,56 @@
       <c r="T2" s="473"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="522" t="s">
+      <c r="A3" s="530" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="523"/>
-      <c r="C3" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="527"/>
-      <c r="E3" s="527"/>
-      <c r="F3" s="527"/>
-      <c r="G3" s="527"/>
-      <c r="H3" s="527"/>
-      <c r="I3" s="528"/>
-      <c r="J3" s="537" t="s">
+      <c r="B3" s="531"/>
+      <c r="C3" s="534" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="535"/>
+      <c r="E3" s="535"/>
+      <c r="F3" s="535"/>
+      <c r="G3" s="535"/>
+      <c r="H3" s="535"/>
+      <c r="I3" s="536"/>
+      <c r="J3" s="545" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="538"/>
-      <c r="L3" s="538"/>
-      <c r="M3" s="538"/>
-      <c r="N3" s="538"/>
-      <c r="O3" s="538"/>
-      <c r="P3" s="538"/>
-      <c r="Q3" s="539"/>
+      <c r="K3" s="546"/>
+      <c r="L3" s="546"/>
+      <c r="M3" s="546"/>
+      <c r="N3" s="546"/>
+      <c r="O3" s="546"/>
+      <c r="P3" s="546"/>
+      <c r="Q3" s="547"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="540" t="s">
+      <c r="S3" s="548" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="541"/>
-      <c r="U3" s="544" t="s">
+      <c r="T3" s="549"/>
+      <c r="U3" s="552" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="545"/>
-      <c r="W3" s="545"/>
-      <c r="X3" s="545"/>
-      <c r="Y3" s="545"/>
-      <c r="Z3" s="545"/>
-      <c r="AA3" s="546"/>
-      <c r="AB3" s="534" t="s">
+      <c r="V3" s="553"/>
+      <c r="W3" s="553"/>
+      <c r="X3" s="553"/>
+      <c r="Y3" s="553"/>
+      <c r="Z3" s="553"/>
+      <c r="AA3" s="554"/>
+      <c r="AB3" s="542" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="534"/>
-      <c r="AD3" s="534"/>
-      <c r="AE3" s="534"/>
-      <c r="AG3" s="534" t="s">
+      <c r="AC3" s="542"/>
+      <c r="AD3" s="542"/>
+      <c r="AE3" s="542"/>
+      <c r="AG3" s="542" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="524"/>
-      <c r="B4" s="525"/>
+      <c r="A4" s="532"/>
+      <c r="B4" s="533"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -7788,8 +7962,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="542"/>
-      <c r="T4" s="543"/>
+      <c r="S4" s="550"/>
+      <c r="T4" s="551"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -7823,7 +7997,7 @@
       <c r="AE4" s="458" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="534"/>
+      <c r="AG4" s="542"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -11724,19 +11898,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="529" t="s">
+      <c r="A66" s="537" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="530"/>
+      <c r="B66" s="538"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="519">
+      <c r="F66" s="527">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="520"/>
-      <c r="H66" s="521"/>
+      <c r="G66" s="528"/>
+      <c r="H66" s="529"/>
       <c r="I66" s="368"/>
       <c r="J66" s="419">
         <f>SUM(J5:J65)</f>
@@ -11755,10 +11929,10 @@
       </c>
       <c r="P66" s="422"/>
       <c r="Q66" s="423"/>
-      <c r="S66" s="535" t="s">
+      <c r="S66" s="543" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="536"/>
+      <c r="T66" s="544"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>166</v>
@@ -11864,56 +12038,56 @@
       <c r="T2" s="473"/>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="522" t="s">
+      <c r="A3" s="530" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="523"/>
-      <c r="C3" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="527"/>
-      <c r="E3" s="527"/>
-      <c r="F3" s="527"/>
-      <c r="G3" s="527"/>
-      <c r="H3" s="527"/>
-      <c r="I3" s="528"/>
-      <c r="J3" s="537" t="s">
+      <c r="B3" s="531"/>
+      <c r="C3" s="534" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="535"/>
+      <c r="E3" s="535"/>
+      <c r="F3" s="535"/>
+      <c r="G3" s="535"/>
+      <c r="H3" s="535"/>
+      <c r="I3" s="536"/>
+      <c r="J3" s="545" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="538"/>
-      <c r="L3" s="538"/>
-      <c r="M3" s="538"/>
-      <c r="N3" s="538"/>
-      <c r="O3" s="538"/>
-      <c r="P3" s="538"/>
-      <c r="Q3" s="539"/>
+      <c r="K3" s="546"/>
+      <c r="L3" s="546"/>
+      <c r="M3" s="546"/>
+      <c r="N3" s="546"/>
+      <c r="O3" s="546"/>
+      <c r="P3" s="546"/>
+      <c r="Q3" s="547"/>
       <c r="R3" s="90"/>
-      <c r="S3" s="540" t="s">
+      <c r="S3" s="548" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="541"/>
-      <c r="U3" s="544" t="s">
+      <c r="T3" s="549"/>
+      <c r="U3" s="552" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="545"/>
-      <c r="W3" s="545"/>
-      <c r="X3" s="545"/>
-      <c r="Y3" s="545"/>
-      <c r="Z3" s="545"/>
-      <c r="AA3" s="546"/>
-      <c r="AB3" s="534" t="s">
+      <c r="V3" s="553"/>
+      <c r="W3" s="553"/>
+      <c r="X3" s="553"/>
+      <c r="Y3" s="553"/>
+      <c r="Z3" s="553"/>
+      <c r="AA3" s="554"/>
+      <c r="AB3" s="542" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="534"/>
-      <c r="AD3" s="534"/>
-      <c r="AE3" s="534"/>
-      <c r="AG3" s="534" t="s">
+      <c r="AC3" s="542"/>
+      <c r="AD3" s="542"/>
+      <c r="AE3" s="542"/>
+      <c r="AG3" s="542" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A4" s="524"/>
-      <c r="B4" s="525"/>
+      <c r="A4" s="532"/>
+      <c r="B4" s="533"/>
       <c r="C4" s="159" t="s">
         <v>41</v>
       </c>
@@ -11960,8 +12134,8 @@
         <v>105</v>
       </c>
       <c r="R4" s="91"/>
-      <c r="S4" s="542"/>
-      <c r="T4" s="543"/>
+      <c r="S4" s="550"/>
+      <c r="T4" s="551"/>
       <c r="U4" s="277" t="s">
         <v>132</v>
       </c>
@@ -11995,7 +12169,7 @@
       <c r="AE4" s="444" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="534"/>
+      <c r="AG4" s="542"/>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="306" t="s">
@@ -15870,19 +16044,19 @@
       <c r="AG65" s="18"/>
     </row>
     <row r="66" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A66" s="529" t="s">
+      <c r="A66" s="537" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="530"/>
+      <c r="B66" s="538"/>
       <c r="C66" s="272"/>
       <c r="D66" s="272"/>
       <c r="E66" s="273"/>
-      <c r="F66" s="519">
+      <c r="F66" s="527">
         <f>SUM(F5:H65)</f>
         <v>10450000</v>
       </c>
-      <c r="G66" s="520"/>
-      <c r="H66" s="521"/>
+      <c r="G66" s="528"/>
+      <c r="H66" s="529"/>
       <c r="I66" s="368"/>
       <c r="J66" s="419">
         <f>SUM(J5:J65)</f>
@@ -15901,10 +16075,10 @@
       </c>
       <c r="P66" s="422"/>
       <c r="Q66" s="423"/>
-      <c r="S66" s="535" t="s">
+      <c r="S66" s="543" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="536"/>
+      <c r="T66" s="544"/>
       <c r="U66" s="320">
         <f>SUM(U5:U65)</f>
         <v>165</v>
@@ -16001,56 +16175,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="522" t="s">
+      <c r="A2" s="530" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="523"/>
-      <c r="C2" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="527"/>
-      <c r="E2" s="527"/>
-      <c r="F2" s="527"/>
-      <c r="G2" s="527"/>
-      <c r="H2" s="527"/>
-      <c r="I2" s="528"/>
-      <c r="J2" s="537" t="s">
+      <c r="B2" s="531"/>
+      <c r="C2" s="534" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="535"/>
+      <c r="E2" s="535"/>
+      <c r="F2" s="535"/>
+      <c r="G2" s="535"/>
+      <c r="H2" s="535"/>
+      <c r="I2" s="536"/>
+      <c r="J2" s="545" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="538"/>
-      <c r="L2" s="538"/>
-      <c r="M2" s="538"/>
-      <c r="N2" s="538"/>
-      <c r="O2" s="538"/>
-      <c r="P2" s="538"/>
-      <c r="Q2" s="539"/>
+      <c r="K2" s="546"/>
+      <c r="L2" s="546"/>
+      <c r="M2" s="546"/>
+      <c r="N2" s="546"/>
+      <c r="O2" s="546"/>
+      <c r="P2" s="546"/>
+      <c r="Q2" s="547"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="540" t="s">
+      <c r="S2" s="548" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="541"/>
-      <c r="U2" s="544" t="s">
+      <c r="T2" s="549"/>
+      <c r="U2" s="552" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="545"/>
-      <c r="W2" s="545"/>
-      <c r="X2" s="545"/>
-      <c r="Y2" s="545"/>
-      <c r="Z2" s="545"/>
-      <c r="AA2" s="546"/>
-      <c r="AB2" s="534" t="s">
+      <c r="V2" s="553"/>
+      <c r="W2" s="553"/>
+      <c r="X2" s="553"/>
+      <c r="Y2" s="553"/>
+      <c r="Z2" s="553"/>
+      <c r="AA2" s="554"/>
+      <c r="AB2" s="542" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="534"/>
-      <c r="AD2" s="534"/>
-      <c r="AE2" s="534"/>
-      <c r="AG2" s="534" t="s">
+      <c r="AC2" s="542"/>
+      <c r="AD2" s="542"/>
+      <c r="AE2" s="542"/>
+      <c r="AG2" s="542" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="524"/>
-      <c r="B3" s="525"/>
+      <c r="A3" s="532"/>
+      <c r="B3" s="533"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -16097,8 +16271,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="542"/>
-      <c r="T3" s="543"/>
+      <c r="S3" s="550"/>
+      <c r="T3" s="551"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -16132,7 +16306,7 @@
       <c r="AE3" s="437" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="534"/>
+      <c r="AG3" s="542"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="306" t="s">
@@ -19991,19 +20165,19 @@
       <c r="AG63" s="18"/>
     </row>
     <row r="64" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="529" t="s">
+      <c r="A64" s="537" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="530"/>
+      <c r="B64" s="538"/>
       <c r="C64" s="272"/>
       <c r="D64" s="272"/>
       <c r="E64" s="273"/>
-      <c r="F64" s="519">
+      <c r="F64" s="527">
         <f>SUM(F4:H63)</f>
         <v>10300000</v>
       </c>
-      <c r="G64" s="520"/>
-      <c r="H64" s="521"/>
+      <c r="G64" s="528"/>
+      <c r="H64" s="529"/>
       <c r="I64" s="368"/>
       <c r="J64" s="419">
         <f>SUM(J4:J63)</f>
@@ -20022,10 +20196,10 @@
       </c>
       <c r="P64" s="422"/>
       <c r="Q64" s="423"/>
-      <c r="S64" s="535" t="s">
+      <c r="S64" s="543" t="s">
         <v>180</v>
       </c>
-      <c r="T64" s="536"/>
+      <c r="T64" s="544"/>
       <c r="U64" s="320">
         <f>SUM(U4:U63)</f>
         <v>162</v>
@@ -20124,56 +20298,56 @@
       <c r="Y1" s="73"/>
     </row>
     <row r="2" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="522" t="s">
+      <c r="A2" s="530" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="523"/>
-      <c r="C2" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="527"/>
-      <c r="E2" s="527"/>
-      <c r="F2" s="527"/>
-      <c r="G2" s="527"/>
-      <c r="H2" s="527"/>
-      <c r="I2" s="528"/>
-      <c r="J2" s="537" t="s">
+      <c r="B2" s="531"/>
+      <c r="C2" s="534" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="535"/>
+      <c r="E2" s="535"/>
+      <c r="F2" s="535"/>
+      <c r="G2" s="535"/>
+      <c r="H2" s="535"/>
+      <c r="I2" s="536"/>
+      <c r="J2" s="545" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="538"/>
-      <c r="L2" s="538"/>
-      <c r="M2" s="538"/>
-      <c r="N2" s="538"/>
-      <c r="O2" s="538"/>
-      <c r="P2" s="538"/>
-      <c r="Q2" s="539"/>
+      <c r="K2" s="546"/>
+      <c r="L2" s="546"/>
+      <c r="M2" s="546"/>
+      <c r="N2" s="546"/>
+      <c r="O2" s="546"/>
+      <c r="P2" s="546"/>
+      <c r="Q2" s="547"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="540" t="s">
+      <c r="S2" s="548" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="541"/>
-      <c r="U2" s="544" t="s">
+      <c r="T2" s="549"/>
+      <c r="U2" s="552" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="545"/>
-      <c r="W2" s="545"/>
-      <c r="X2" s="545"/>
-      <c r="Y2" s="545"/>
-      <c r="Z2" s="545"/>
-      <c r="AA2" s="546"/>
-      <c r="AB2" s="534" t="s">
+      <c r="V2" s="553"/>
+      <c r="W2" s="553"/>
+      <c r="X2" s="553"/>
+      <c r="Y2" s="553"/>
+      <c r="Z2" s="553"/>
+      <c r="AA2" s="554"/>
+      <c r="AB2" s="542" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="534"/>
-      <c r="AD2" s="534"/>
-      <c r="AE2" s="534"/>
-      <c r="AG2" s="534" t="s">
+      <c r="AC2" s="542"/>
+      <c r="AD2" s="542"/>
+      <c r="AE2" s="542"/>
+      <c r="AG2" s="542" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="82" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="524"/>
-      <c r="B3" s="525"/>
+      <c r="A3" s="532"/>
+      <c r="B3" s="533"/>
       <c r="C3" s="159" t="s">
         <v>41</v>
       </c>
@@ -20220,8 +20394,8 @@
         <v>105</v>
       </c>
       <c r="R3" s="91"/>
-      <c r="S3" s="542"/>
-      <c r="T3" s="543"/>
+      <c r="S3" s="550"/>
+      <c r="T3" s="551"/>
       <c r="U3" s="277" t="s">
         <v>132</v>
       </c>
@@ -20255,7 +20429,7 @@
       <c r="AE3" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="534"/>
+      <c r="AG3" s="542"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="305" t="s">
@@ -24046,21 +24220,21 @@
       <c r="AG62" s="18"/>
     </row>
     <row r="63" spans="1:33" s="82" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="529" t="s">
+      <c r="A63" s="537" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="530"/>
+      <c r="B63" s="538"/>
       <c r="C63" s="272"/>
       <c r="D63" s="272"/>
       <c r="E63" s="273"/>
       <c r="F63" s="275">
         <v>41</v>
       </c>
-      <c r="G63" s="547">
+      <c r="G63" s="555">
         <f>SUM(F4:H62)</f>
         <v>10100000</v>
       </c>
-      <c r="H63" s="548"/>
+      <c r="H63" s="556"/>
       <c r="I63" s="245"/>
       <c r="J63" s="274">
         <f>SUM(J4:J62)</f>
@@ -24079,10 +24253,10 @@
       </c>
       <c r="P63" s="247"/>
       <c r="Q63" s="248"/>
-      <c r="S63" s="535" t="s">
+      <c r="S63" s="543" t="s">
         <v>180</v>
       </c>
-      <c r="T63" s="536"/>
+      <c r="T63" s="544"/>
       <c r="U63" s="320">
         <f>SUM(U4:U62)</f>
         <v>10</v>
